--- a/data_get/25.xlsx
+++ b/data_get/25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\ticketsystem\data_get\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD253EBE-909F-4522-ADF0-94923C42686E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58697297-BDBC-45B5-9B1C-27AAF104F316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="601">
   <si>
     <t>学生姓名</t>
   </si>
@@ -1845,13 +1845,17 @@
   </si>
   <si>
     <t>42512300</t>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1870,6 +1874,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1917,7 +1929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1929,6 +1941,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2420,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3162,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3875,8 +3890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A50" sqref="A2:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4600,1492 +4615,2383 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70244F08-85A6-42DD-99BC-61B7123052AB}">
-  <dimension ref="A1:A296"/>
+  <dimension ref="A1:B296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>42512001</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>42512002</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>42512003</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>42512004</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>42512005</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>42512006</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42512007</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>42512008</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>42512009</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>42512010</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>42512011</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>42512012</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>42512013</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>42512014</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>42512015</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>42512016</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>42512017</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>42512018</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>42512019</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>42512020</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>42512021</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>42512022</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>42512023</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>42512024</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>42512025</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>42512026</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>42512027</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>42512028</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>42512029</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>42512030</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>42512031</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>42512032</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>42512033</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>42512034</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>42512035</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>42512036</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>42512037</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>42512038</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>42512039</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>42512040</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42512041</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42512042</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42512043</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42512044</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42512045</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>42512046</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>42512047</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>42512048</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>42512049</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>42512050</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>42512051</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>42512052</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>42512053</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>42512054</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>42512055</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>42512056</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>42512057</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>42512058</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>42512059</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>42512060</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>42512061</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>42512062</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>42512063</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>42512064</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>42512065</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>42512066</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>42512067</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>42512068</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>42512069</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>42512070</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>42512071</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>42512072</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>42512073</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>42512074</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>42512076</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>42512077</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>42512078</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>42512079</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>42512080</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>42512081</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>42512082</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>42512083</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>42512084</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>42512085</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>42512086</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>42512087</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>42512088</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>42512089</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>42512091</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>42512092</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>42512093</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>42512094</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>42512095</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>42512096</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>42512097</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>42512098</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>42512099</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>42512100</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>42505415</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>42512101</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>42512102</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>42512103</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>42512104</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>42512105</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>42512106</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>42512107</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>42512108</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>42512109</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>42512110</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>42512111</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>42512113</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>42512114</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>42512115</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>42512116</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>42512117</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>42512118</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>42512119</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>42512120</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>42512121</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>42512122</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>42512123</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>42512124</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>42512125</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>42512126</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>42512127</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>42512128</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>42512129</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>42512130</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>42512131</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>42512132</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>42512133</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>42512134</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>42512135</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>42512136</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>42512137</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>42512138</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>42512139</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>42512140</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>42512141</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>42512142</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>42512143</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>42512144</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>42512146</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>42512147</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>42512148</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>42512149</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>42512150</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>42512151</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>42512152</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>42512153</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>42512154</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>42512155</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>42512156</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>42512157</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>42512158</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>42512159</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>42512160</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>42512161</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>42512162</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>42512163</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>42512164</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>42512165</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>42512166</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>42512167</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>42512168</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>42512169</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>42512170</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>42512171</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>42512172</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>42512173</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>42512174</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>42512175</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>42512176</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>42512177</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>42512178</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>42512179</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>42512180</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>42512181</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>42512182</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>42512183</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>42512184</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>42512185</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>42512186</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>42512187</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>42512188</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>42512189</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>42512190</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>42512191</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>42512192</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>42512193</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>42512194</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>42512195</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>42512196</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>42512197</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>42512198</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>42512199</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>42512200</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>42412166</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>42512201</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>42512202</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>42512203</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>42512204</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>42512205</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>42512206</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>42512207</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>42512208</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>42512209</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>42512211</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>42512212</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>42512213</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>42512214</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>42512215</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>42512216</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>42512217</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>42512218</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>42512219</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>42512220</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>42512221</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>42512222</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>42512223</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>42512224</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>42512225</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>42512227</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>42512228</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>42512229</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>42512230</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>42512231</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>42512232</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>42512233</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>42512234</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>42512235</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>42512236</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>42512237</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>42512238</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>42512239</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>42512240</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>42512241</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>42512242</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>42512243</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>42512244</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>42512245</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>42512246</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>42512247</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>42512248</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>42512249</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>42512250</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>42508175</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>42512251</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>42512252</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>42512253</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>42512254</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>42512255</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>42512256</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>42512257</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>42512258</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>42512259</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>42512260</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>42512261</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>42512262</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>42512263</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>42512264</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B262" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>42512265</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>42512266</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B264" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>42512267</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>42512268</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B266" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>42512269</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B267" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>42512271</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B268" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>42512272</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B269" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>42512273</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B270" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>42512274</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>42512275</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>42512276</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>42512278</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>42512279</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>42512280</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>42512281</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>42512282</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>42512283</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>42512284</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>42512285</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>42512286</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>42512287</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>42512288</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>42512289</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>42512290</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>42512291</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>42512292</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>42512293</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>42512294</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B290" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>42512295</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>42512296</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>42512297</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>42512298</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>42512299</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>42512300</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -6098,8 +7004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6838,8 +7744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7565,8 +8471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A50" sqref="A2:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
